--- a/PRODUTOS/Bebidas/Bebidas - Destilados.xlsx
+++ b/PRODUTOS/Bebidas/Bebidas - Destilados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bebida Mista Smirnoff Ice Lata 269ml</t>
+          <t>Whisky Passport Nacional Scotch 1l</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2aac4cc5-63e3-405f-a4ce-89a992c95ace.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0807696-dc00-40a1-9783-5cbad3e99531.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891050001252</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vodka Smirnoff Ice 275ml</t>
+          <t>Gin Seagers 980ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 42,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf180f3d-9bab-4546-bbce-5ef4961a06b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86fa066f-a426-4a02-87c3-b8060df9a314.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891121154009</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Whisky Grand Old Parr 750ml</t>
+          <t>Conhaque Presidente 900ml</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 129,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd9dfe29-29ad-4e30-962b-3f82e141af21.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a11b487b-4744-4b69-a9b3-37b58f2bd831.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896023080487</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cachaça Velho Barreiro 910ml</t>
+          <t>Saque Azuma Kirin Dourado 740ml</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 44,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75db340e-36d9-4b06-ae30-5bb83825d8a1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ce336ee-a622-481f-8a36-fc2c2bf5a304.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896299101046</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gin Bombay Sapphire Dry London750ml</t>
+          <t>Coquetel Duelo De Limao 500ml</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 109,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2ed954d-94d9-4e6a-822f-5501845a33a3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f03ee7f7-329c-4e4c-8760-0758f9f030fc.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896514701990</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vodka Smirnoff 998ml</t>
+          <t>Coquetel Duelo De Pessego 500ml</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9577b1f-f89a-4a46-ab6f-be134a8c66cd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1ecf5da-5f82-4439-a7f2-32f7afbf26a8.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896514702003</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cachaça Pirassununga 51 Garrafa 965ml</t>
+          <t>Conhaque São João Da Barra 900 Ml</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/647193ce-7190-4ed5-a3d0-414d99a07e0f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d3679dd-35a4-483d-92e0-2c30bd4a40c3.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896022610005</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bebida Mista Skol Beats Gin &amp; Tônica Lata 269ml</t>
+          <t>Rum Montilla Carta Branca 1 Litro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 6,79</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a95f488-05f9-41db-b227-49e770008d32.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6efd9cf-5131-46ec-b737-0d8d12225de2.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891050004307</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Whisky Escocês Johnnie Walker Red Label 1lt</t>
+          <t>Aperitivo Leao De Norte Jurubeba 600ml</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 99,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7884ca6-0e80-4aec-9f9c-1bff62cd5ef8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b69334b9-0520-408a-a4d9-4e4d2a9aedad.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896486100012</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Skol Beats 269ml Tropical</t>
+          <t>Aperitivo Cynar 900ml</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 6,79</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa3ec32f-9daa-44fd-8543-feba62eb75b3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5a00eee-1564-4b91-bbc1-bb90e04e67f2.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896685200063</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bebida 51 Ice Good Idea Limao 275 Ml</t>
+          <t>Vodka Smirnoff 998ml</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c671c22-2182-4ad9-b8be-dab893b07872.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9577b1f-f89a-4a46-ab6f-be134a8c66cd.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7893218002576</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Gin Apogee Tradicional Garrafa 1lt</t>
+          <t>Cachaca Sao Francisco 970ml</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b1e160b-a138-497e-a161-16da2da55abc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec085a80-d0ab-42da-92ae-0881a9f4aae6.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891050001108</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Whisky Americano Jack Daniel`s 1l</t>
+          <t>Coquetel Duelo Morango 500ml</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 169,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9de43e0a-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3f84d55-b5f3-455e-b266-9127dae98106.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896514702034</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vodka Balalaika 1lt</t>
+          <t>Contini Branco 900ml</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6b853376-dc99-4bc1-b729-8a5455fc56bc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c61dd25d-2f48-4c23-b4cd-12f5036066ca.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896008112219</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Gin Tanqueray London Dry 750ml</t>
+          <t>Keep Cooler Classic Morango 275ml</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 129,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/236bd2c4-e6b2-4c08-9c71-02032753638f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0ed8d39a-f46b-4e61-b9bc-515b833afcb9.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891141023019</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bebida Mista Skol Beats Lt 269ml Red Mix</t>
+          <t>Coquetel De Maracuja Duelo 500ml</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06518118-4951-475b-94d1-f43a146259bd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/420e927e-75ae-45ad-864d-ee85885cf594.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896514702010</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bebida Mista Ice Noch 270ml Morango E Melancia</t>
+          <t>Whisky Black White 1lt</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 89,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a771a82-1b1d-475b-9fe0-5660eb6bd954.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63aca5a2-ec2a-4868-859b-8758008d8614.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7893218003375</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Keep Cooler Classic Morango 275ml</t>
+          <t>Aperitivo Paratudo Raizes Amargas 900ml</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0ed8d39a-f46b-4e61-b9bc-515b833afcb9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09634ca1-6936-4cdb-8015-05099963067a.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896685200063</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Whisky Americano Jim Beam Bourbon 1l</t>
+          <t>Batida Baianinha 900ml Amendoim</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 119,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/138de5c9-254f-464d-8dea-751a7ed9086e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da4e72aa-c532-4f91-9f13-08b140353549.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896092501302</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bebida 51 Ice 275ml Mix De Frutas</t>
+          <t>Contini Tinto 900ml</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f22a7026-c3bd-4d0a-b0ae-5c8873104d46.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/caf13d59-cea2-45f5-8bd2-fccf1ad9af18.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896008112226</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Gin Tonica Flowers 269ml Toque De Morango</t>
+          <t>Whisky Cutty Sark 1lt</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 69,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e0c071e-6e1b-4696-9b18-e6405d1d50dd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bcdc0157-6e92-4815-9bf3-59b3c06ab4ce.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7898945134163</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bebida Mista Honey Limonada Jack Daniel`s Lata 330ml</t>
+          <t>Batida Baianinha 900ml Coco</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24593440-542b-4c7b-be22-da7513eb9144.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9adf3a1b-7c31-4e8b-b46c-2f136b4d3784.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896092501326</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Aperitivo Aperol 750ml</t>
+          <t>Cachaca De Cana Adocada Pitu 350ml</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 56,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5cbfb4d-58e9-4d7a-b3a3-e7e75108e750.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e719c289-1d90-4cce-bb75-e9e9d1121cb0.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896607100372</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Keepcooler Classic Uva 275 Ml</t>
+          <t>Rum Montilla Carta Cristal1 Litro</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f23eb391-5228-4b54-9f17-d02b6ac34d15.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78cab071-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891050004406</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Keep Cooler Classic Pessego 275ml</t>
+          <t>Cachaca Salinas Umburana 600ml</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4b93a328-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbed319a-730c-4be2-83df-ae5b74693468.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7897877000201</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Skol Beats Senses Long Neck 269ml</t>
+          <t>Bebida Mista Smirnoff Ice Lata 269ml</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63219f18-e7c0-491a-8650-4d007e95eb3e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2aac4cc5-63e3-405f-a4ce-89a992c95ace.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7893218003610</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Catuaba Selvagem 300ml</t>
+          <t>Rum Montilla 1l Carta Ouro</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25cead3d-4990-442a-9f09-68cb29928294.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e288fa4d-e256-4b53-8d64-525eab23c194.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7891050004208</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bebida 51 Ice Good Idea Maracuja 275 Ml</t>
+          <t>Vodka Orloff 1lt</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c80b99c2-7d83-44d8-a296-c7571a1def44.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e80e31af-69cb-4b39-8b01-21c9aa5e9232.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7891050000903</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Bebida 51 Ice Kiwi Edição Limit. 275ml</t>
+          <t>Batida Baianinha 900ml Maracuja</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea94a0b7-408c-49f3-a7ff-1fe522326cf0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc63ea3a-d182-4a79-84cb-436b897e4ca8.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896092501340</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vodka Askov Ice 275ml Limao</t>
+          <t>Rum Bacardi Carta Branca 980ml</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b98578dd-c987-4a97-97a9-cc472e012074.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c99db9e0-cefa-467a-9dd8-1f357f08a6d6.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7891125064038</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bebida Mista Ice Noch 270ml Maracuja</t>
+          <t>Rum Bacardi Carta De Oro 980ml</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 54,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/631d039c-dcd2-45a5-8da3-bb4622dacd9b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6b62e55-4964-4e76-9907-358ae638a602.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7891125064076</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Conhaque Dreher 900ml</t>
+          <t>Aperitivo Martini Rosso Vermouth 750ml</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecb41980-12e5-4d76-916a-3a1f241f676b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de49f94b-faed-4185-b651-c34db171c4e7.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7891125000104</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Vodka Orloff 1lt</t>
+          <t>Cachaca Velho Barreiro Gold 910ml</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e80e31af-69cb-4b39-8b01-21c9aa5e9232.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/59d050b3-139c-4329-a67a-c39776228f7c.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896050200872</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Vodka Moscowita 900ml</t>
+          <t>Coquetel Duelo De Coco 500ml</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b60b4c90-b80e-4c9f-b57b-614b2beafcf7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2dfbf9e2-ef50-4ef3-a711-02154fec51ed.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896514702065</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Gin Tonica Flowers 269ml Toque Tropical</t>
+          <t>Steinhaeger Dubar 960ml</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33f7c91e-623d-4c85-a792-094bdd634a8a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4da4f3ce-3c6a-41cc-8369-40ff2b736b33.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7898255980375</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Vodka Smirnoff 1,750ml Tradicional</t>
+          <t>Cachaça Pirassununga 51 Garrafa 965ml</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 59,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ed5efbc-45c8-44a2-a16d-5b434685bc60.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/647193ce-7190-4ed5-a3d0-414d99a07e0f.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896002100014</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Whisky Johnnie Walker Red Label Garrafa 750ml</t>
+          <t>Conhaque Dreher 900ml</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 79,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/079f2c2c-f672-4983-827e-9ff595498777.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecb41980-12e5-4d76-916a-3a1f241f676b.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896010006360</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cachaca Corote 500ml</t>
+          <t>Steinhaeger Becosa 980ml</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 45,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffdd12d9-7e21-4c4d-b8dd-04ee7004af02.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7832456a-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7898255980375</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bebida Mista Ice Noch 270ml Limao</t>
+          <t>Licor De Cacau Golf 900ml</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac9c2c2c-9296-4ebf-a668-d177f52fc44c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd16843e-3352-43d9-af3d-52a000f08ea2.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896092501388</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Gin Tonica Flowers 269ml Toque De Coco E Açaí</t>
+          <t>Whisky Black Stone 1 Lt</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/21c9c3b1-0e64-466a-aae3-bad65be74ae2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5244437-903d-4c08-8611-64291e4d556c.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896037916338</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Conhaque Presidente 900ml</t>
+          <t>Keep Cooler Classic Citrus 275ml</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a11b487b-4744-4b69-a9b3-37b58f2bd831.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fa94c67-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7891141022777</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bebida 51 Ice Long Neck 275ml Balada</t>
+          <t>Coquetel Duelo De Cacau 500ml</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f23d8cb8-0dab-4dfc-b865-7a66b7a33804.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03e3f16b-be49-4080-9c20-e164eb7359ec.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896514702072</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Coquetel Askov Fun Fun Pessego 500ml</t>
+          <t>Cachaça Velho Barreiro 910ml</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/485a2837-03a7-4374-81f6-76919d61c4fc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75db340e-36d9-4b06-ae30-5bb83825d8a1.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896050200872</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Gin Gordon`s London Dry 750ml</t>
+          <t>Licor Peppermint Palhinha Menta 900ml</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 89,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/beb59764-3a38-4169-8f39-b1e8c329d38f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c3efba5-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896051225102</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Saquê Seco Kampai Garrafa 745ml</t>
+          <t>Whisky Chanceler 1lt</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e96a7949-d2ee-425e-9caa-f78b88bd8dee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d391c5dd-0ab8-4fd2-aeb0-96fce3c5ae81.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896072911244</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bebida Mista Xeque Mate Lata 362ml</t>
+          <t>Aperitivo Malibu 750ml</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 64,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c45b0d97-4045-4f6b-b0ab-2bfec004ba3d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/157f9ffa-35e1-47a2-884e-15ca0a019beb.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7891050004734</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Whisky Chanceler 1lt</t>
+          <t>Licor Stock Marula 720ml</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 69,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d391c5dd-0ab8-4fd2-aeb0-96fce3c5ae81.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d7ef4f01-7ecd-4a20-b5e8-c5b5f6d49f05.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7891121283006</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Vodka Askov Ice 275ml Fr Vermelhas</t>
+          <t>Cachaca Pirassununga 51 Ouro 965ml</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d1090a4-28e6-440b-b41d-4807502756b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3384417-dd0e-4716-881f-a599315ada4d.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896002110921</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Saquê Seco Azuma Kirin Garrafa 600ml</t>
+          <t>Licor De Anis Anissete Stock 720ml</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db73c3fd-8407-4db1-8912-40cb32ed1e9a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/afc4cc87-5fd1-4df2-bdd4-3c6bbb0bfe19.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7891121283006</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Gin Apogee Citrus Garrafa 1lt</t>
+          <t>Licor De Curuçau Fino Stock 720ml</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2306f855-9f35-46d4-b30c-657fd123d7e1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15749a41-0903-4a78-bae2-f5bf9c6a58e9.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7891121206005</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Gin Apogee Rose Garrafa 1lt</t>
+          <t>Cachaca Vila Velha 600ml</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1fe1179-3532-438e-a1c7-8d3358fc9558.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50140f38-bbe8-4cd5-aede-d6b1e89879e2.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7896276700026</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Whisky Jameson 750ml Blend</t>
+          <t>Vodka Balalaika 1lt</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 99,98</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d5073a7-bf10-4fcb-872b-cd94acbec622.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6b853376-dc99-4bc1-b729-8a5455fc56bc.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896273100263</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Whisky Jim Beam 1l Apple</t>
+          <t>Saquê Seco Azuma Kirin Garrafa 600ml</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 119,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2fde68a8-5423-4c0f-8a3d-a6dbfcfd0b13.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db73c3fd-8407-4db1-8912-40cb32ed1e9a.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7896299101077</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Whisky White Horse 500ml</t>
+          <t>Catuaba Selvagem 300ml</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d5dad05-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25cead3d-4990-442a-9f09-68cb29928294.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7896336810740</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Licor Africano Cremoso Amarula Garrafa 750ml</t>
+          <t>Cachaca Ypioca Ouro Empalhada 960ml</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 139,99</t>
+          <t>R$ 56,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ad203d6-d088-47e7-b7dc-dcd5ddc3bc9b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99368989-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7896383700841</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Whisky Black Stone 1 Lt</t>
+          <t>Cachaca Corote 500ml</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5244437-903d-4c08-8611-64291e4d556c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffdd12d9-7e21-4c4d-b8dd-04ee7004af02.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7897110000500</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Whisky White Horse 1l</t>
+          <t>Cachaca De Cana Pitù 600ml</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 89,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2009fe27-b58f-4705-9808-14ad5b7adc5c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eadb14fe-f5c0-46d6-8729-ef15943a2852.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7896607100372</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Vodka Askov Premium 900ml</t>
+          <t>Catuaba Duelo 500ml</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a44c7434-05a0-48af-a16f-45dc63550279.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5a8a4c5-a81d-4fac-8dc3-110a66e496bf.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7896514702089</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Licor 43 Diego Zamora 700ml</t>
+          <t>Coquetel Duelo De Menta 500ml</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 159,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3165bea5-f7d2-43f2-8430-d641e39b8270.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63b5447e-58dc-4785-b649-8f8793e63c59.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7896514702119</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Gin Tonica Schweppes Lt 269ml</t>
+          <t>Cachaca Velho Barreiro Limão 910ml</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/375b9b0d-1db4-44eb-8a82-5a83ba56d95e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/903df3cd-db9f-45d7-8a9f-613c78c66b51.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7896050200742</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cachaca Pirassununga 21 900ml</t>
+          <t>Vodka Askov Ice 275ml Limao</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb4dfb75-b511-4562-ac41-aa4b3f08ea99.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b98578dd-c987-4a97-97a9-cc472e012074.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7896092503290</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Vodka Natasha 900ml</t>
+          <t>Cachaca Salinas 600ml</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 46,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8891cb19-677e-4854-a050-27c7fc43f9a6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02b6be76-4380-4e8c-acd5-6fa31bcce22f.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7897877000034</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Aperitivo Busca Vida Garrafa 670ml</t>
+          <t>Cachaca Kariri 960ml</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 79,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f6ef520-017d-49ea-9876-af221a9e13f3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2ff86bf-d708-4748-8de1-7c34449663dc.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7898967324009</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Aperitivo Campari 748ml</t>
+          <t>Keep Cooler Classic Pessego 275ml</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 54,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa81cdc9-a3b6-4014-84b1-6c2b241de1db.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4b93a328-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7891141022814</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Flowers Drinks 269ml Spritz</t>
+          <t>Vodka Askov Premium 900ml</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3e0d32c-014a-4068-8975-64ce5e6559ee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a44c7434-05a0-48af-a16f-45dc63550279.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7896092503269</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Gin Seagers 980ml</t>
+          <t>Licor De Gianduia Stock 720ml</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 42,99</t>
+          <t>R$ 69,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86fa066f-a426-4a02-87c3-b8060df9a314.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64bc5481-9f9f-4335-a1ae-8d654bd81f25.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7891121283006</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Vodka Smirnoff 600ml</t>
+          <t>Bebida 51 Ice Long Neck 275ml Balada</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec8d3a91-7d49-4fed-8d66-0171b0edee20.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f23d8cb8-0dab-4dfc-b865-7a66b7a33804.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896002111034</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Whisky Jim Beam 1l Honey</t>
+          <t>Vodka Askov Ice 275ml Fr Vermelhas</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 119,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c23dc459-cbb6-461d-a6a8-b28b40d72757.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d1090a4-28e6-440b-b41d-4807502756b2.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7896092503313</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Coquetel Duelo De Limao 500ml</t>
+          <t>Vodka Askov 900ml Limao</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f03ee7f7-329c-4e4c-8760-0758f9f030fc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b18fa8f-5454-4e62-b04c-6d8b4d02deeb.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7896092503269</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Whisky Escocês Johnnie Walker Black Label 12 Anos 1lt</t>
+          <t>Vodka Askov 900ml Maracuja</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 199,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d13a8fd4-8f7e-41b1-b80d-e8f4d9e05cf3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6bf40242-92f2-44cd-97c3-4d1165b0d3cf.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7896092503252</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Whisky Cutty Sark 1lt</t>
+          <t>Vodka Askov 900ml Kiwi</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 69,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bcdc0157-6e92-4815-9bf3-59b3c06ab4ce.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/61fda025-a1ad-4239-9a51-09737935b21c.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7896092503269</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cachaca De Cana Adocada Pitu 350ml</t>
+          <t>Vodka Askov Frutas Vermelhas 900ml</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e719c289-1d90-4cce-bb75-e9e9d1121cb0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a07c16fc-fb14-4ba0-bf94-1bc6f796b57a.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7896092503269</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Vodka Askov Frutas Vermelhas 900ml</t>
+          <t>Coquetel Duelo Amendoim 500ml</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a07c16fc-fb14-4ba0-bf94-1bc6f796b57a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d362ad1-f0b9-4f39-ae3f-0bc28c9c1ece.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7896514701549</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Vermute Branco Martini Garrafa 750ml</t>
+          <t>Cachaca Ypioca Braz Ouro S/palha 965ml</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 46,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19b9f50a-d95a-48e3-b685-ac1199f8cca7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6b471852-c167-4db0-9f81-d9a348791f8d.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7896383730411</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Whisky Ballantines 750ml Bourbom Finish</t>
+          <t>Cachaca Ypioca Bras Prata S/palha 965ml</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 79,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/886fde25-3ef0-4ff7-a27f-cd1a91f14ae6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2c6d5b97-25ca-4a95-ae1c-014fd7a0cd59.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7896383730428</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Batida Baianinha 900ml Coco</t>
+          <t>Vodka Askov 900ml Bluberry</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9adf3a1b-7c31-4e8b-b46c-2f136b4d3784.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee951632-49fc-4715-a695-897dd88f24d3.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7896092503269</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Vodka Absolut Original 1lt</t>
+          <t>Licor De Menta Golf 900ml</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 99,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e872493-4caf-44ee-bf5e-cb163741a50a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cffbc7df-db83-41ec-9666-9c2ebd3d50e4.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7896092501401</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cachaca Do Barril 500ml</t>
+          <t>Cachaca Seleta 700ml</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81151a33-75ff-4c00-94d0-b3a161967b19.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb29e325-ee43-4b89-b1ed-d32e573254ad.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7898010861284</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Whisky Jack Daniel`s Apple 1l</t>
+          <t>Cachaca Do Barril 500ml</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 169,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/424c5c15-e374-40ef-b076-cf8aa905764e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81151a33-75ff-4c00-94d0-b3a161967b19.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7896273100171</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Whisky Ballantines 8 Anos Finest 1l</t>
+          <t>Licor Brasileiro Stock Chocolate Garrafa 720ml</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 89,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7ffb61db-5320-4585-8e04-9caccd3eeb67.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf361c25-842e-4e4a-945d-25890d26bb00.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7891121212006</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Keep Cooler Classic Citrus 275ml</t>
+          <t>Licor Stock Creme De Cacau 720ml</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fa94c67-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd6e7f41-ab9d-4b25-b7bc-edb55ec908a3.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7891121203004</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Conhaque Domeq Nacional 1lt</t>
+          <t>Licor Stock Creme De Cassis 720ml</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 44,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d836e8f8-9b9a-4ee5-8ff8-ab8b00572bec.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3116c380-1adf-4e3b-9940-a16fb71c6390.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7891121219005</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cachaca Ypioca Braz Ouro S/palha 965ml</t>
+          <t>Cachaca Salinas Umburana 700ml</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 59,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6b471852-c167-4db0-9f81-d9a348791f8d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b9b1f68-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7897877000249</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Vodka Absolut Imported 750ml</t>
+          <t>Aperitivo Aperol 750ml</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 79,99</t>
+          <t>R$ 56,99</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a622871a-73cd-455e-8d9f-743e01ab0fdb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5cbfb4d-58e9-4d7a-b3a3-e7e75108e750.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7891125000098</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Coquetel Cabaré Fire Canela 1lt</t>
+          <t>Vermute Rosato Martini Garrafa 750ml</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 46,99</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b5ef6c1-5309-4817-a49d-b5bdc874c589.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2738b666-4dde-4c86-9a7c-9a47025723c3.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7891125000081</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Keep Cooler Classic 275ml Pina Colada</t>
+          <t>Vodka Smirnoff 600ml</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c21daba5-ff38-4f61-accd-f0199c3d6fda.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec8d3a91-7d49-4fed-8d66-0171b0edee20.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7893218002576</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Whisky Passport Nacional Scotch 1l</t>
+          <t>Vodka Askov Ice 275ml Maracuja</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0807696-dc00-40a1-9783-5cbad3e99531.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cfe66be9-5b7b-4728-970f-809f63e47a75.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7896092503290</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Aguardente De Cana Adoçada Pitú 965ml</t>
+          <t>Rum Bacardi Limon 980ml</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c757c6b7-fed0-48c1-92fc-06a0c96fcb07.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed740a57-927c-432b-a74a-4acb03cbe273.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7891125064038</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Licor Peppermint Palhinha Menta 900ml</t>
+          <t>Cachaca Cabare 700ml Prata</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c3efba5-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd852a35-a4cd-4740-abf9-b9121a634331.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7898377661992</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Licor Brasileiro Stock Chocolate Garrafa 720ml</t>
+          <t>Cachaça Ouro Cabaré Garrafa 700ml</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf361c25-842e-4e4a-945d-25890d26bb00.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9d59805-5950-4dac-b92d-980ad3636f6b.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7898377661978</t>
         </is>
       </c>
     </row>
@@ -2891,17 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Coquetel Askov Fun Fun Bluberry 500ml</t>
+          <t>Cachaca Pirassununga 21 900ml</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc9eb3f1-44e6-4ec3-b0ae-15f4346c9dea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb4dfb75-b511-4562-ac41-aa4b3f08ea99.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7896273100881</t>
         </is>
       </c>
     </row>
@@ -2918,17 +3378,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Flowers Drinks 269ml Apple Drink</t>
+          <t>Coquetel Askov Fun Fun Frutas Verm 500ml</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f32a1c2d-ea1d-4809-97b4-d271d99c9a15.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2c453c9e-7a62-4a9c-b37d-84a8fe0b047e.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7896092504860</t>
         </is>
       </c>
     </row>
@@ -2945,17 +3410,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Flowers Drinks 269ml Moscow Mule</t>
+          <t>Coquetel Askov Fun Fun Maracuja 500ml</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16a6a75d-fffc-42a0-a20c-b946d2218838.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44340c92-e65b-414b-ac58-539921f48267.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7896092504921</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Aperitivo Cynar 900ml</t>
+          <t>Coquetel Askov Fun Fun 500ml Trad</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5a00eee-1564-4b91-bbc1-bb90e04e67f2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de808314-5ba9-4217-8700-e1e54cd13677.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7896092504860</t>
         </is>
       </c>
     </row>
@@ -2999,17 +3474,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cachaca Kariri 960ml</t>
+          <t>Coquetel Askov Fun Fun Pessego 500ml</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2ff86bf-d708-4748-8de1-7c34449663dc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/485a2837-03a7-4374-81f6-76919d61c4fc.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7896092504907</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Vodka Askov 900ml Maracuja</t>
+          <t>Coquetel Askov Fun Fun Bluberry 500ml</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6bf40242-92f2-44cd-97c3-4d1165b0d3cf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc9eb3f1-44e6-4ec3-b0ae-15f4346c9dea.jpg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7896092504907</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3538,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Saquê Thikará Garrafa 745ml Gold</t>
+          <t>Cachaca Boazinha 700ml</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48fce255-fbdf-4f76-9ec2-36a7c609682a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6832dda8-7216-4ef9-8198-7b541c67e7a5.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7898010861307</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3570,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Whisky J Walker 750ml Blonde</t>
+          <t>Cachaca Seleta 1l Ouro</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>R$ 79,99</t>
+          <t>R$ 54,99</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/efe3cc8b-7c68-4faa-9a59-d5aa297fa1e4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/38b65af6-29b1-4768-82d9-042abbfa6d75.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7898010860164</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3602,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Licor Ballena Com Tequila 750ml Morango</t>
+          <t>Gin Apogee Tradicional Garrafa 1lt</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R$ 149,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b62adb68-74bf-4587-a76a-e4d137786200.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b1e160b-a138-497e-a161-16da2da55abc.jpg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7898221854310</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3634,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Bebida Mista Absolut Sprite Lt 269ml Vodka</t>
+          <t>Cachaca Cabare Amburana 700ml</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>R$ 8,90</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1186f248-cde5-49cb-9d0f-4a31190cb4b5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec98fd71-7c8d-4094-a854-4583946f6897.jpg</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7898377661954</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3666,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Aguardente Pirassununga 51 Lata 350ml</t>
+          <t>Cachaca Cabare Extra Premium 700ml</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 349,99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8c296e3-28ac-477a-ba12-59d686ca962c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/497edacb-ecb4-4214-9c80-d20516600ec3.jpg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7898939469387</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3698,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Licor Stock Marula 720ml</t>
+          <t>Saquê Seco Kampai Garrafa 745ml</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>R$ 69,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d7ef4f01-7ecd-4a20-b5e8-c5b5f6d49f05.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e96a7949-d2ee-425e-9caa-f78b88bd8dee.jpg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7898994017356</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3730,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Cachaca Pirassununga 51 Ouro 965ml</t>
+          <t>Gin Apogee Citrus Garrafa 1lt</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3384417-dd0e-4716-881f-a599315ada4d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2306f855-9f35-46d4-b30c-657fd123d7e1.jpg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7898221854310</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3762,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Whisky Passport 670ml Sabor De Mel</t>
+          <t>Gin Apogee Negroni Garrafa 1lt</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>R$ 56,99</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e280871-e701-419c-8930-655a193dabb6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/235a3f90-56f3-474f-8946-351c1f1c6f0d.jpg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7898221854310</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3794,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Gin Eco Gin Vidro 950ml Tradicional</t>
+          <t>Gin Apogee Rose Garrafa 1lt</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed5f26a3-f936-40ef-9dca-2b1a83bef6fb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1fe1179-3532-438e-a1c7-8d3358fc9558.jpg</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7898221854310</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3826,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Saque Azuma Kirin Dourado 740ml</t>
+          <t>Whisky Black White 700ml Orange</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>R$ 44,99</t>
+          <t>R$ 65,99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ce336ee-a622-481f-8a36-fc2c2bf5a304.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd737601-564b-4fe1-8a24-82ed21ccff0a.jpg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7893218003375</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3858,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Whisky Johnnie Walker Gold Label 750ml</t>
+          <t>Cachaça Seleta 700ml Prata</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>R$ 279,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d0bf8327-798a-4b9e-a9e8-1c79d313f2ab.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c624277e-ae16-4ced-b184-a26493e8b440.jpg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7898010861253</t>
         </is>
       </c>
     </row>
@@ -3350,17 +3890,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Cachaca Ypioca Bras Prata S/palha 965ml</t>
+          <t>Whisky Passport 670ml Sabor De Mel</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2c6d5b97-25ca-4a95-ae1c-014fd7a0cd59.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e280871-e701-419c-8930-655a193dabb6.jpg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7891050001252</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3922,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cachaça Ouro Cabaré Garrafa 700ml</t>
+          <t>Skol Beats Senses Long Neck 269ml</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9d59805-5950-4dac-b92d-980ad3636f6b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63219f18-e7c0-491a-8650-4d007e95eb3e.jpg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7891149105564</t>
         </is>
       </c>
     </row>
@@ -3404,17 +3954,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Coquetel Askov Fun Fun Frutas Verm 500ml</t>
+          <t>Whisky Drurys 900ml</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2c453c9e-7a62-4a9c-b37d-84a8fe0b047e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/555664a0-7d72-4311-b769-004f9dcd0783.jpg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7896010006353</t>
         </is>
       </c>
     </row>
@@ -3431,17 +3986,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Whisky Jonnie Walker Black Label 750ml</t>
+          <t>Skol Beats 269ml Tropical</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>R$ 149,99</t>
+          <t>R$ 6,79</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cea841c-de1b-4055-95e8-4063a5abb9f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa3ec32f-9daa-44fd-8543-feba62eb75b3.jpg</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7891991306164</t>
         </is>
       </c>
     </row>
@@ -3458,17 +4018,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Whisky Cutty Sark 700ml</t>
+          <t>Aperitivo Campari 748ml</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>R$ 44,90</t>
+          <t>R$ 54,99</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b04fbf10-dc65-4a95-b676-c27ef627fad4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa81cdc9-a3b6-4014-84b1-6c2b241de1db.jpg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7896010006308</t>
         </is>
       </c>
     </row>
@@ -3485,17 +4050,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Contini Branco 900ml</t>
+          <t>Bebida Imsta Paulistana 750ml Banana</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 35,99</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c61dd25d-2f48-4c23-b4cd-12f5036066ca.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7898015731438</t>
         </is>
       </c>
     </row>
@@ -3512,17 +4082,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Rum Montilla 1l Carta Ouro</t>
+          <t>Bebida Mista Paulistana 750ml Mel E Limão</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 35,99</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e288fa4d-e256-4b53-8d64-525eab23c194.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7898015731438</t>
         </is>
       </c>
     </row>
@@ -3539,17 +4114,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Rum Bacardi Carta Branca 980ml</t>
+          <t>Vodka Smirnoff 1,750ml Tradicional</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>R$ 59,99</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c99db9e0-cefa-467a-9dd8-1f357f08a6d6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ed5efbc-45c8-44a2-a16d-5b434685bc60.jpg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7893218003634</t>
         </is>
       </c>
     </row>
@@ -3566,17 +4146,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Vodka Askov 900ml Bluberry</t>
+          <t>Licor Ballena C/tequila 750ml Choc/caram</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 159,99</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee951632-49fc-4715-a695-897dd88f24d3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b985c7f-d295-4bb1-a6c5-ae9f1a2e35e2.jpg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7898726150023</t>
         </is>
       </c>
     </row>
@@ -3593,17 +4178,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Licor Stock Creme De Cassis 720ml</t>
+          <t>Gin Flowers 750ml</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3116c380-1adf-4e3b-9940-a16fb71c6390.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/600ea136-6a76-4e63-870a-a4dde8ad732e.jpg</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7896731303168</t>
         </is>
       </c>
     </row>
@@ -3620,17 +4210,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vermute Rosato Martini Garrafa 750ml</t>
+          <t>Gin Flowers 750ml Rose</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>R$ 46,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2738b666-4dde-4c86-9a7c-9a47025723c3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8dfcbb06-9d01-4f97-aee2-d4cfd78dba33.jpg</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7896731303168</t>
         </is>
       </c>
     </row>
@@ -3647,17 +4242,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Flowers Drinks 269ml Mojito</t>
+          <t>Keep Cooler Classic 275ml Pina Colada</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a50bbdc-e332-4ae4-88d3-d63ea6a1d66a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c21daba5-ff38-4f61-accd-f0199c3d6fda.jpg</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7891141032172</t>
         </is>
       </c>
     </row>
@@ -3674,17 +4274,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Batida Baianinha 900ml Amendoim</t>
+          <t>Bebida Mista Alcolica Bananazinha 900ml</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 44,99</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da4e72aa-c532-4f91-9f13-08b140353549.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/807a202e-0834-48aa-a6ab-7a62df485db8.jpg</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7897275153936</t>
         </is>
       </c>
     </row>
@@ -3701,17 +4306,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Rum Montilla Carta Cristal1 Litro</t>
+          <t>Gin Tonica Schweppes Lt 269ml</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78cab071-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/375b9b0d-1db4-44eb-8a82-5a83ba56d95e.jpg</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7894900184075</t>
         </is>
       </c>
     </row>
@@ -3728,17 +4338,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Cachaca De Cana Pitù 600ml</t>
+          <t>Gin Tônica Schweppes 250ml</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eadb14fe-f5c0-46d6-8729-ef15943a2852.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11862c83-5062-4cad-a57a-7a63f205f519.jpg</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7894900184006</t>
         </is>
       </c>
     </row>
@@ -3755,17 +4370,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vodka Askov Ice 275ml Maracuja</t>
+          <t>Bebida Mista Schweppes 250ml Vodka Citrus</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cfe66be9-5b7b-4728-970f-809f63e47a75.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0da4cd29-4c66-4497-b0ac-1b66a50807d6.jpg</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7894900184273</t>
         </is>
       </c>
     </row>
@@ -3782,17 +4402,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Whisky Jack Daniels 700ml N78 Old</t>
+          <t>Bebida Mista Ice Noch 270ml Limao</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>R$ 139,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ffe3c37-0780-41b4-b609-7772d1692086.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac9c2c2c-9296-4ebf-a668-d177f52fc44c.jpg</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7898942055836</t>
         </is>
       </c>
     </row>
@@ -3809,7 +4434,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Coquetel Duelo De Pessego 500ml</t>
+          <t>Bebida Mista Ice Noch 270ml Maracuja</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3819,7 +4444,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1ecf5da-5f82-4439-a7f2-32f7afbf26a8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/631d039c-dcd2-45a5-8da3-bb4622dacd9b.jpg</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7898942055843</t>
         </is>
       </c>
     </row>
@@ -3836,17 +4466,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Aperitivo Leao De Norte Jurubeba 600ml</t>
+          <t>Bebida Mista Ice Noch 270ml Morango E Melancia</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b69334b9-0520-408a-a4d9-4e4d2a9aedad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a771a82-1b1d-475b-9fe0-5660eb6bd954.jpg</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>7898942055836</t>
         </is>
       </c>
     </row>
@@ -3863,17 +4498,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Whisky William Grants 1l</t>
+          <t>Bebida Mista Skol Beats Lt 269ml Green Mix</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>R$ 109,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74db2836-20ff-4762-833e-4f77ec5d8622.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c462d4a8-b8f3-42a0-8149-f46b7cbf97c7.jpg</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7891991307185</t>
         </is>
       </c>
     </row>
@@ -3890,2258 +4530,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Coquetel Duelo De Cacau 500ml</t>
+          <t>Saquê Bonsai Garrafa 750ml</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 19,98</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03e3f16b-be49-4080-9c20-e164eb7359ec.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Gin Apogee Negroni Garrafa 1lt</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>R$ 56,99</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/235a3f90-56f3-474f-8946-351c1f1c6f0d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Licor Bardera 500ml Banoffe</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>R$ 74,99</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bee6b4b4-3278-4c0a-80c2-c58d94e2d82e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Whisky Escocês Buchanan`s 12 Anos 1lt</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>R$ 219,99</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26f0f33e-7e59-48eb-89e3-d2fa998c11e5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Licor Francês Cointreau Garrafa 700ml</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>R$ 139,99</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c1abced-b152-4cf7-bce3-32fa8650666b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Whisky Chivas Regal 12 Anos 1 Litro</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>R$ 129,99</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7bf540e9-265a-481c-ad37-ad54f52a098a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Cachaca Sao Francisco 970ml</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>R$ 32,99</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec085a80-d0ab-42da-92ae-0881a9f4aae6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Coquetel Duelo Morango 500ml</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3f84d55-b5f3-455e-b266-9127dae98106.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Cachaca Salinas Umburana 600ml</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbed319a-730c-4be2-83df-ae5b74693468.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Conhaque Macieira Brandy 5 Estr 700ml</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>R$ 149,99</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bec5791f-32e8-401c-8445-9edef4c83435.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Cachaca Velho Barreiro Gold 910ml</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/59d050b3-139c-4329-a67a-c39776228f7c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Steinhaeger Dubar 960ml</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4da4f3ce-3c6a-41cc-8369-40ff2b736b33.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Steinhaeger Becosa 980ml</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>R$ 45,99</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7832456a-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Licor De Cacau Golf 900ml</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd16843e-3352-43d9-af3d-52a000f08ea2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Aperitivo Malibu 750ml</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>R$ 64,99</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/157f9ffa-35e1-47a2-884e-15ca0a019beb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Vodka Askov 900ml Kiwi</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/61fda025-a1ad-4239-9a51-09737935b21c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Coquetel Duelo Amendoim 500ml</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6d362ad1-f0b9-4f39-ae3f-0bc28c9c1ece.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Licor De Menta Golf 900ml</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cffbc7df-db83-41ec-9666-9c2ebd3d50e4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Cachaca Seleta 700ml</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb29e325-ee43-4b89-b1ed-d32e573254ad.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Whisky Jack Daniels Fire 1l</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>R$ 169,99</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a63c7e75-7c8a-4a4f-a14b-420c16cec01a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Cachaca Seleta 1l Ouro</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>R$ 54,99</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/38b65af6-29b1-4768-82d9-042abbfa6d75.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Whisky Jack Daniels 700ml Honey</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>R$ 139,99</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8b6837c6-e851-4308-a976-8b772692db5a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Licor Ballena C/tequila 750ml Choc/caram</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>R$ 139,99</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b985c7f-d295-4bb1-a6c5-ae9f1a2e35e2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Gin Flowers 750ml Rose</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8dfcbb06-9d01-4f97-aee2-d4cfd78dba33.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Tequila Jose Cuervo Especial Ouro 750ml</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>R$ 129,99</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/83538911-8f07-4e0f-a854-4006d11f5908.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Coquetel De Maracuja Duelo 500ml</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/420e927e-75ae-45ad-864d-ee85885cf594.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Whisky Black White 1lt</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>R$ 89,99</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63aca5a2-ec2a-4868-859b-8758008d8614.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Batida Baianinha 900ml Maracuja</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc63ea3a-d182-4a79-84cb-436b897e4ca8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Aperitivo Martini Rosso Vermouth 750ml</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de49f94b-faed-4185-b651-c34db171c4e7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Cachaca Ypioca Ouro Empalhada 960ml</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>R$ 56,99</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99368989-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Licor De Gianduia Stock 720ml</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>R$ 69,99</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64bc5481-9f9f-4335-a1ae-8d654bd81f25.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Licor Stock Creme De Cacau 720ml</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd6e7f41-ab9d-4b25-b7bc-edb55ec908a3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Cachaca Salinas Umburana 700ml</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>R$ 59,99</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b9b1f68-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Cachaca Cabare Amburana 700ml</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>R$ 36,99</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec98fd71-7c8d-4094-a854-4583946f6897.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Whisky Bell´s 700 Ml</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Cachaça Seleta 700ml Prata</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>R$ 47,99</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c624277e-ae16-4ced-b184-a26493e8b440.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Whisky Royal Salute 21 Anos 700ml</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>R$ 799,99</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb589446-f7e2-4d63-bd2b-8eaf3a512bc2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Licor Fireball 750ml Canela</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>R$ 89,99</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17705267-3633-4e3e-8685-c5e4e012d932.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Gin Gilbeys Dry 700ml</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5a71baf-2d84-41b1-a3e8-fc3752f1a35e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Licor Bardera 500ml Cafe</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>R$ 74,99</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/024bcf92-907e-4b31-9024-eb64eb693f4b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Whisky Jack Daniels 700ml Fire</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>R$ 139,99</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9939884e-c03f-4ce8-b1cb-f1b073001bbd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Gin Eco Gin Vidro 950ml Morango</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Gin Eco Gin Vidro 950ml Melancia</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Gin Tônica Schweppes 250ml</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>R$ 7,49</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/11862c83-5062-4cad-a57a-7a63f205f519.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Bebida Mista Schweppes 250ml Vodka Citrus</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>R$ 7,49</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0da4cd29-4c66-4497-b0ac-1b66a50807d6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Gin Tonica Flowers 269ml Melancia</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b1a6355-dd93-4ac6-b5b4-1b16e4d9dab6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Conhaque De Gengibre Palhinha 900ml</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50da48af-6027-4149-a02a-4ad0ed085e23.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Conhaque São João Da Barra 900 Ml</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d3679dd-35a4-483d-92e0-2c30bd4a40c3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Rum Montilla Carta Branca 1 Litro</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6efd9cf-5131-46ec-b737-0d8d12225de2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Aperitivo Paratudo Raizes Amargas 900ml</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09634ca1-6936-4cdb-8015-05099963067a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Rum Bacardi Carta De Oro 980ml</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>R$ 54,99</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6b62e55-4964-4e76-9907-358ae638a602.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Coquetel Duelo De Coco 500ml</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2dfbf9e2-ef50-4ef3-a711-02154fec51ed.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Licor De Curuçau Fino Stock 720ml</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15749a41-0903-4a78-bae2-f5bf9c6a58e9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Cachaca Vila Velha 600ml</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50140f38-bbe8-4cd5-aede-d6b1e89879e2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Coquetel Duelo De Menta 500ml</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63b5447e-58dc-4785-b649-8f8793e63c59.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Vodka Askov 900ml Limao</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b18fa8f-5454-4e62-b04c-6d8b4d02deeb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Cachaca Cabare 700ml Prata</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>R$ 32,99</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd852a35-a4cd-4740-abf9-b9121a634331.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Coquetel Askov Fun Fun 500ml Trad</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>R$ 7,98</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de808314-5ba9-4217-8700-e1e54cd13677.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Cachaca Boazinha 700ml</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6832dda8-7216-4ef9-8198-7b541c67e7a5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Vinho Rosso Cinzano 1l Vermmouth Tto</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>R$ 44,99</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60c6d021-a33c-402d-a457-dd229f7cdfa2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Licor Bardera 500ml Avela</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>R$ 74,99</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b085c3f-6316-401a-8d7b-36d83a8b8420.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Gin Eco Gin Vidro 950ml Tropical</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Gin Flowers 750ml</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/600ea136-6a76-4e63-870a-a4dde8ad732e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Bebida Mista Skol Beats Lt 269ml Green Mix</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c462d4a8-b8f3-42a0-8149-f46b7cbf97c7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Aperitivo Brasilberg Underberg 920ml</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>R$ 69,99</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7522235-3e56-4140-87af-22f14c1c9b1c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Cachaca Old Cesar 88 965ml</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ecd8b79-5013-486f-950a-e36ebcf7a2ba.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Licor De Anis Anissete Stock 720ml</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/afc4cc87-5fd1-4df2-bdd4-3c6bbb0bfe19.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Catuaba Duelo 500ml</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5a8a4c5-a81d-4fac-8dc3-110a66e496bf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Cachaca Velho Barreiro Limão 910ml</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>R$ 27,99</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/903df3cd-db9f-45d7-8a9f-613c78c66b51.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Aperitivo Amaro Jagermeister 700ml</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>R$ 149,99</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a85d84c-9663-48b8-9f66-0168d5782d18.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Rum Bacardi Limon 980ml</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed740a57-927c-432b-a74a-4acb03cbe273.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Gin Bulldog 750ml</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>R$ 179,99</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bba5cb6f-3ba4-4db8-81cf-b24804b32946.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Cachaca Cabare Extra Premium 700ml</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>R$ 349,99</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/497edacb-ecb4-4214-9c80-d20516600ec3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Whisky Black White 700ml Orange</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>R$ 65,99</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd737601-564b-4fe1-8a24-82ed21ccff0a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Gin Beefeater 750ml Botanics</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>R$ 129,99</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/054d6268-8c95-4e55-a667-b38c5a84f8be.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Whisky Drurys 900ml</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/555664a0-7d72-4311-b769-004f9dcd0783.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Whisky Jim Beam Black Extra Aged 1l</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>R$ 149,99</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f03000a2-b5c0-4f90-8bdd-2c4d9459c6d5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Bebida Imsta Paulistana 750ml Banana</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>R$ 35,99</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Bebida Mista Paulistana 750ml Mel E Limão</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>R$ 35,99</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Bebida Mista Alcolica Bananazinha 900ml</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>R$ 44,99</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/807a202e-0834-48aa-a6ab-7a62df485db8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Rum Bacardi Big Apple 700ml</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89346717-2447-4a0e-9d65-7ed9115ba7a0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Whisky Jim Beam Black 1l Cherry</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>R$ 119,99</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fcc1033-4042-4c02-aa27-d5d6bb155810.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Licor Bardera 500ml Doce De Leite Com Pistache</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>R$ 74,99</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Saquê Bonsai Garrafa 750ml</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b19d56d7-b799-4536-8591-f92086c78fcf.jpg</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7896731303069</t>
         </is>
       </c>
     </row>
